--- a/app_pref/file/test.xlsx
+++ b/app_pref/file/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="28549" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15269" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,22 +481,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23368</t>
+          <t>13776</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16680</t>
+          <t>8632</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>5344</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30650</t>
+          <t>38026</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>83226</t>
+          <t>68690</t>
         </is>
       </c>
     </row>
@@ -526,22 +526,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23556</t>
+          <t>17688</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15832</t>
+          <t>8788</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5392</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32138</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>81147</t>
+          <t>66954</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6084</t>
+          <t>5380</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29376</t>
+          <t>32134</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>81108</t>
+          <t>66858</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5384</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32134</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>81111</t>
+          <t>66862</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23536</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5380</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32134</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>81119</t>
+          <t>66858</t>
         </is>
       </c>
     </row>
@@ -706,22 +706,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5384</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>29376</t>
+          <t>32134</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>81112</t>
+          <t>66862</t>
         </is>
       </c>
     </row>
@@ -751,22 +751,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -776,17 +776,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6084</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>81107</t>
+          <t>66827</t>
         </is>
       </c>
     </row>
@@ -796,22 +796,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5344</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>81111</t>
+          <t>66831</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6084</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>29375</t>
+          <t>32135</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>81107</t>
+          <t>66827</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23528</t>
+          <t>17656</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>5344</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29376</t>
+          <t>32135</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>81112</t>
+          <t>66831</t>
         </is>
       </c>
     </row>

--- a/app_pref/file/test.xlsx
+++ b/app_pref/file/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="15269" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="9118" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,22 +481,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13776</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8632</t>
+          <t>15676</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2876</t>
+          <t>8392</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5344</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>38026</t>
+          <t>29010</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>68690</t>
+          <t>63870</t>
         </is>
       </c>
     </row>
@@ -526,22 +526,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17688</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8788</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>32138</t>
+          <t>26675</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>66954</t>
+          <t>62311</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5380</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32134</t>
+          <t>26718</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>66858</t>
+          <t>62310</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5384</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>32134</t>
+          <t>26719</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>66862</t>
+          <t>62315</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5380</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32134</t>
+          <t>26718</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>66858</t>
+          <t>62310</t>
         </is>
       </c>
     </row>
@@ -706,22 +706,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5384</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>32134</t>
+          <t>26718</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>66862</t>
+          <t>62314</t>
         </is>
       </c>
     </row>
@@ -751,22 +751,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -776,17 +776,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32135</t>
+          <t>26718</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>66827</t>
+          <t>62306</t>
         </is>
       </c>
     </row>
@@ -796,22 +796,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5344</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32135</t>
+          <t>26718</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>66831</t>
+          <t>62318</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32135</t>
+          <t>26719</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>66827</t>
+          <t>62315</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17656</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>15692</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5344</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32135</t>
+          <t>26716</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>66831</t>
+          <t>62312</t>
         </is>
       </c>
     </row>

--- a/app_pref/file/test.xlsx
+++ b/app_pref/file/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="9118" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="16324" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15676</t>
+          <t>13600</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8392</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>5516</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29010</t>
+          <t>20769</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>63870</t>
+          <t>45829</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>26675</t>
+          <t>21414</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62311</t>
+          <t>46498</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>21414</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>46478</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>26719</t>
+          <t>21414</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>62315</t>
+          <t>46482</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>21414</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>46478</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>21414</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>62314</t>
+          <t>46482</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -776,17 +776,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>21412</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>62306</t>
+          <t>46476</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13628</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>21412</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>62318</t>
+          <t>46516</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13632</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26719</t>
+          <t>21412</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>62315</t>
+          <t>46552</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>13632</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26716</t>
+          <t>21412</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>62312</t>
+          <t>46524</t>
         </is>
       </c>
     </row>
